--- a/medicine/Mort/Liste_de_catacombes/Liste_de_catacombes.xlsx
+++ b/medicine/Mort/Liste_de_catacombes/Liste_de_catacombes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste recense les catacombes connues dans le monde, classées par pays.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Paris
-Catacombes de Paris
-Lyon
-Arêtes de poisson (usage incertain)</t>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Catacombes de Paris</t>
         </is>
       </c>
     </row>
@@ -541,40 +556,523 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Italie</t>
+          <t xml:space="preserve"> France</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Agrigente
-Catacombe Fragapane
-Albano Laziale
-Catacombes de San Senatore (it)
-Aoste
-Catacombes d'Aoste
-Bolsena
-Catacombe de Santa Cristina
-Calvi
-Catacombe de Calvi
-Campo nell'Elba
-Catacombes de Pianosa
-Capoue
-Catacombes de Capoue
-Chiusi
-Catacombe de Santa Caterina d'Alessandria (it)
-Catacombe de Santa Mustiola (it)
-Concordia Sagittaria
-Catacombe de Iulia Concordia
-Grottaferrata
-Catacombes ad Decimum
-L'Aquila
-Catacombes de San Vittorino
-Messine
-Catacombes de Messine
-Monteleone Sabino
-Catacombes de Santa Vittoria (Trebula Mutuesca)
-Naples
-Catacombes de Naples (it)
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arêtes de poisson (usage incertain)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Agrigente</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Catacombe Fragapane</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albano Laziale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Catacombes de San Senatore (it)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aoste</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Catacombes d'Aoste</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bolsena</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Catacombe de Santa Cristina</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Calvi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Catacombe de Calvi</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Campo nell'Elba</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Catacombes de Pianosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Capoue</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Catacombes de Capoue</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chiusi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Catacombe de Santa Caterina d'Alessandria (it)
+Catacombe de Santa Mustiola (it)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Concordia Sagittaria</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Catacombe de Iulia Concordia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Grottaferrata</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Catacombes ad Decimum</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L'Aquila</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Catacombes de San Vittorino</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Messine</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Catacombes de Messine</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Monteleone Sabino</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Catacombes de Santa Vittoria (Trebula Mutuesca)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Naples</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Catacombes de Naples (it)
 Catacombes du Pianto
 Catacombes de la Vita
 Catacombes de Materdei
@@ -586,26 +1084,230 @@
 Catacombes de San Vito
 Catacombes de Sant'Ermo
 Catacombes de Sant'Eufebio
-Catacombes de Sant'Eufemia
-Nepi
-Catacombes de Santa Savinilla
-Palerme
-Catacombes capucines de Palerme
+Catacombes de Sant'Eufemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nepi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Catacombes de Santa Savinilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Palerme</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Catacombes capucines de Palerme
 Catacombes de Porta d'Ossuna (it)
 Catacombes de Casa Professa (it)
 Catacombes de San Michele Arcangelo
-Catacombes dei Santissimi Quaranta Martiri
-Paliano
-Catacombes de Colle San Quirico
-Ravenne
-Catacombes d'Eleucadio
+Catacombes dei Santissimi Quaranta Martiri</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Paliano</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Catacombes de Colle San Quirico</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ravenne</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Catacombes d'Eleucadio
 Catacombes de Probo
 Catacombes de San Severo
-Catacombes de Sant'Apollinare
-Rignano Flaminio
-Catacombes de Santa Teodora
-Rome
-Catacombe dei due Felici (it)
+Catacombes de Sant'Apollinare</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Rignano Flaminio</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Catacombes de Santa Teodora</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Rome</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Catacombe dei due Felici (it)
 Catacombe dei Giordani (it)
 Catacombe dei Santi Gordiano ed Epimaco (it)
 Catacombe dei Santi Processo e Martiniano (it)
@@ -646,49 +1348,255 @@
 Hypogée des Aureli (it) (catacombe gnostique)
 Hypogée de la via Dino Compagni (it)
 Hypogée de la via Livenza (it)
-Hypogée de Vibia (it) (mélangeant des sépultures païennes et chrétiennes)
-Sant'Antioco
-Catacombes de Sant'Antioco (it)
-Syracuse
-Catacombes de San Giovanni
+Hypogée de Vibia (it) (mélangeant des sépultures païennes et chrétiennes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sant'Antioco</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Catacombes de Sant'Antioco (it)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Catacombes de San Giovanni
 Catacombe de Santa Lucia
-Catacombes de Vigna Cassia
-Sutri
-Catacombe de San Giovenale
-Teano
-Catacombes de Teano
-Trapani
-Catacombes de Trapani
-Valmontone
-Catacombes de Sant'Ilario (ad bivium)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_catacombes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Catacombes de Vigna Cassia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sutri</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Catacombe de San Giovenale</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Teano</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Catacombes de Teano</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Trapani</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Catacombes de Trapani</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Valmontone</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Catacombes de Sant'Ilario (ad bivium)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve"> Malte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Abbatija Tad-Dejr (it)
 Catacombes de Salina (it)
@@ -697,62 +1605,69 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_catacombes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve"> Égypte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alexandrie
-Catacombes de Kom El Shoqafa</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_de_catacombes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Alexandrie</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Catacombes de Kom El Shoqafa</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_catacombes</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve"> Tunisie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t xml:space="preserve">Catacombes de Sousse :
 Catacombes du Bon Pasteur
